--- a/api/python_vin_co2/transport_co2_data/Fuelconsumption_countrywise_vehiclewise.xlsx
+++ b/api/python_vin_co2/transport_co2_data/Fuelconsumption_countrywise_vehiclewise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KALPITA ROY\Desktop\Arjuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF17C519-19AB-4F56-823A-2F2D7D64A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE76FDA-B071-4057-8A7E-58179CE8245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>country_code</t>
   </si>
@@ -58,28 +58,37 @@
     <t>vehicle_category</t>
   </si>
   <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Auto_Rickshaw</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Electric</t>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>DIESEL</t>
+  </si>
+  <si>
+    <t>ELECTRIC</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>MOTORCYCLE</t>
+  </si>
+  <si>
+    <t>AUTO_RICKSHAW</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>4.9660000000000003E-2</v>
@@ -491,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>4.4089999999999997E-2</v>
@@ -508,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2.1999999999999999E-2</v>
@@ -525,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -542,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0.35</v>
@@ -559,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0.04</v>
@@ -576,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>0.2</v>
@@ -593,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -610,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>3.7999999999999999E-2</v>
@@ -627,15 +636,185 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>0.18</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>4.9660000000000003E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>4.4089999999999997E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.18</v>
+      </c>
+      <c r="E21" t="s">
         <v>10</v>
       </c>
     </row>
